--- a/data/trans_dic/P14B34-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P14B34-Habitat-trans_dic.xlsx
@@ -613,13 +613,13 @@
       </c>
       <c r="C5" s="5" t="inlineStr"/>
       <c r="D5" s="5" t="n">
-        <v>0.004186285234900842</v>
+        <v>0.003900797638379308</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.003911264801118258</v>
+        <v>0.003938195996125961</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01172688281302193</v>
+        <v>0.01203149263172871</v>
       </c>
     </row>
     <row r="6">
@@ -631,13 +631,13 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.01977450534695956</v>
+        <v>0.01959516737681939</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02039474184834336</v>
+        <v>0.02104571664793259</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02758414228251048</v>
+        <v>0.02683816129731428</v>
       </c>
     </row>
     <row r="7">
@@ -673,13 +673,13 @@
       </c>
       <c r="C8" s="5" t="inlineStr"/>
       <c r="D8" s="5" t="n">
-        <v>0.01050914234734497</v>
+        <v>0.01062590921787404</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.005160575594607924</v>
+        <v>0.005434495233675589</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.005829383254289904</v>
+        <v>0.00610100833329255</v>
       </c>
     </row>
     <row r="9">
@@ -691,13 +691,13 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.02744582662961872</v>
+        <v>0.02839957639404051</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01712491327435981</v>
+        <v>0.01836874696480268</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01631880380665942</v>
+        <v>0.01622367447620208</v>
       </c>
     </row>
     <row r="10">
@@ -733,13 +733,13 @@
       </c>
       <c r="C11" s="5" t="inlineStr"/>
       <c r="D11" s="5" t="n">
-        <v>0.006947381754395613</v>
+        <v>0.006879240246627213</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.006230597797291518</v>
+        <v>0.006398644148898365</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.004001895342981018</v>
+        <v>0.004031645450664576</v>
       </c>
     </row>
     <row r="12">
@@ -751,13 +751,13 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.02715490031480305</v>
+        <v>0.0264853715567696</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0251547054175107</v>
+        <v>0.02505470092136029</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01703685119787384</v>
+        <v>0.01781081813712688</v>
       </c>
     </row>
     <row r="13">
@@ -781,7 +781,7 @@
         <v>0.0114841573111333</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.005393656537145947</v>
+        <v>0.005393656537145948</v>
       </c>
     </row>
     <row r="14">
@@ -793,13 +793,13 @@
       </c>
       <c r="C14" s="5" t="inlineStr"/>
       <c r="D14" s="5" t="n">
-        <v>0.01419898417435259</v>
+        <v>0.01422361774900769</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0055560292601091</v>
+        <v>0.006216096796296998</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.002171519453263526</v>
+        <v>0.002343284659319068</v>
       </c>
     </row>
     <row r="15">
@@ -811,13 +811,13 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.03498300727196904</v>
+        <v>0.03592968898240023</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01973624747183868</v>
+        <v>0.02043027568704713</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01161148423248454</v>
+        <v>0.01161637759888729</v>
       </c>
     </row>
     <row r="16">
@@ -853,13 +853,13 @@
       </c>
       <c r="C17" s="5" t="inlineStr"/>
       <c r="D17" s="5" t="n">
-        <v>0.01301033410330223</v>
+        <v>0.01270930758254853</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.00795663170362374</v>
+        <v>0.008124139005835728</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.007455330612547365</v>
+        <v>0.007384729388097846</v>
       </c>
     </row>
     <row r="18">
@@ -871,13 +871,13 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.02171424533858039</v>
+        <v>0.02250756487543995</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01504343890446197</v>
+        <v>0.01500994374347743</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.01342369776924862</v>
+        <v>0.01338683341780855</v>
       </c>
     </row>
     <row r="19">
@@ -1027,13 +1027,13 @@
       </c>
       <c r="C6" s="6" t="inlineStr"/>
       <c r="D6" s="6" t="n">
-        <v>2945</v>
+        <v>2744</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2639</v>
+        <v>2657</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>8084</v>
+        <v>8294</v>
       </c>
     </row>
     <row r="7">
@@ -1045,13 +1045,13 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>13911</v>
+        <v>13785</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>13762</v>
+        <v>14202</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>19015</v>
+        <v>18500</v>
       </c>
     </row>
     <row r="8">
@@ -1107,13 +1107,13 @@
       </c>
       <c r="C10" s="6" t="inlineStr"/>
       <c r="D10" s="6" t="n">
-        <v>10675</v>
+        <v>10793</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>5276</v>
+        <v>5556</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>6087</v>
+        <v>6371</v>
       </c>
     </row>
     <row r="11">
@@ -1125,13 +1125,13 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>27878</v>
+        <v>28847</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>17509</v>
+        <v>18781</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>17041</v>
+        <v>16942</v>
       </c>
     </row>
     <row r="12">
@@ -1187,13 +1187,13 @@
       </c>
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="n">
-        <v>5263</v>
+        <v>5212</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4732</v>
+        <v>4860</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>3182</v>
+        <v>3206</v>
       </c>
     </row>
     <row r="15">
@@ -1205,13 +1205,13 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>20573</v>
+        <v>20066</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>19106</v>
+        <v>19030</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>13548</v>
+        <v>14164</v>
       </c>
     </row>
     <row r="16">
@@ -1267,13 +1267,13 @@
       </c>
       <c r="C18" s="6" t="inlineStr"/>
       <c r="D18" s="6" t="n">
-        <v>13442</v>
+        <v>13465</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5209</v>
+        <v>5828</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2134</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="19">
@@ -1285,13 +1285,13 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>33118</v>
+        <v>34014</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>18504</v>
+        <v>19155</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>11409</v>
+        <v>11414</v>
       </c>
     </row>
     <row r="20">
@@ -1347,13 +1347,13 @@
       </c>
       <c r="C22" s="6" t="inlineStr"/>
       <c r="D22" s="6" t="n">
-        <v>44541</v>
+        <v>43511</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>27008</v>
+        <v>27576</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>26179</v>
+        <v>25931</v>
       </c>
     </row>
     <row r="23">
@@ -1365,13 +1365,13 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>74340</v>
+        <v>77055</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>51063</v>
+        <v>50949</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>47136</v>
+        <v>47006</v>
       </c>
     </row>
     <row r="24">
